--- a/biology/Médecine/Syndrome_d'Adams-Stokes/Syndrome_d'Adams-Stokes.xlsx
+++ b/biology/Médecine/Syndrome_d'Adams-Stokes/Syndrome_d'Adams-Stokes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Syndrome_d%27Adams-Stokes</t>
+          <t>Syndrome_d'Adams-Stokes</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le syndrome d'Adams-Stokes[1] est un accident neurologique qui survient à la suite d’un trouble de la conduction cardiaque.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le syndrome d'Adams-Stokes est un accident neurologique qui survient à la suite d’un trouble de la conduction cardiaque.
 Les troubles de la conduction sont des anomalies de transmission de l’influx nerveux au sein du cœur. Ceci a pour conséquence un ralentissement ou une irrégularité du cœur. La pression artérielle et la perfusion sont donc diminués au niveau du cerveau, ce qui entraine une perte de connaissance durant une dizaine de secondes, un vertige, voire la mort subite.
-La dénomination de ce syndrome vient de deux médecins irlandais : Robert Adams (médecin) (1791-1875) et William Stockes (1804-1878)[1].
+La dénomination de ce syndrome vient de deux médecins irlandais : Robert Adams (médecin) (1791-1875) et William Stockes (1804-1878).
 </t>
         </is>
       </c>
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Syndrome_d%27Adams-Stokes</t>
+          <t>Syndrome_d'Adams-Stokes</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,7 +525,9 @@
           <t>Épidémiologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce syndrome tend à se produire chez les personnes âgées (dont l’âge est supérieur à 60 ans) car il est habituellement associé à une maladie cardiaque.
 Cependant, il a été observé dans des groupes d’âge plus jeune où les troubles de la conduction cardiaque sont congénitaux.
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Syndrome_d%27Adams-Stokes</t>
+          <t>Syndrome_d'Adams-Stokes</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,7 +559,9 @@
           <t>Symptômes</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Il existe différents symptômes :
 une éventuelle chute, le plus souvent sans avertissement ;
@@ -565,7 +581,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Syndrome_d%27Adams-Stokes</t>
+          <t>Syndrome_d'Adams-Stokes</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -583,9 +599,11 @@
           <t>Diagnostic positif</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Les troubles du rythme et de la conduction suivants, diagnostiqués par un enregistrement ECG, permettent d'affirmer l'origine cardiaque de la perte de connaissance[2] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Les troubles du rythme et de la conduction suivants, diagnostiqués par un enregistrement ECG, permettent d'affirmer l'origine cardiaque de la perte de connaissance :
 pause &gt; 3 secondes (bloc sino-atrial)
 bradycardie &lt; 40 battements par minute
 bloc atrioventriculaire de type 2 mobitz 2 ou de type 3
@@ -601,7 +619,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Syndrome_d%27Adams-Stokes</t>
+          <t>Syndrome_d'Adams-Stokes</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -619,7 +637,9 @@
           <t>Diagnostic différentiel</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Dans le cas où un électrocardiogramme ne révélerait pas d’anomalie, il faut alors procéder à un holter-ECG. Le but de cet examen indolore est de repérer des anomalies éventuelles de l’activité électrique du cœur selon les activités pratiquées ou les prises médicamenteuses du patient au cours d'une journée. Les données sont d’abord enregistrées sur une cassette, puis lues par un ordinateur. Les périodes sélectionnées sont retranscrites sur un graphique par le cardiologue, et interprétées.
 Déroulement de l’examen :
@@ -636,7 +656,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Syndrome_d%27Adams-Stokes</t>
+          <t>Syndrome_d'Adams-Stokes</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -654,7 +674,9 @@
           <t>Traitement</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Pour traiter la maladie, le seul moyen est de corriger le trouble de conduction cardiaque. Il faut alors procéder à la pose d’un pacemaker. Cet appareil va régulariser le rythme des contractions cardiaques.
 </t>
